--- a/d/INFO.xlsx
+++ b/d/INFO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="4692" windowWidth="19320" windowHeight="6420" activeTab="6"/>
+    <workbookView xWindow="312" yWindow="4692" windowWidth="19320" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总括" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="亲属" sheetId="12" r:id="rId11"/>
     <sheet name="其他" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="273">
   <si>
     <t>姓氏</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2213,13 +2213,20 @@
   <si>
     <t>注意：该信息表有10多个表单，对于打算委托FLYabroad的申请人，需要填写所有适用您的信息项，初次评估建议在线评估；</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否申请过美签加签</t>
+  </si>
+  <si>
+    <t>是否申请过新西兰和澳洲签证</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2393,6 +2400,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2854,6 +2867,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2864,18 +2889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3903,17 +3916,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -4033,17 +4046,17 @@
       <c r="I10" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.6">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:9" ht="28.8">
       <c r="A13" s="27" t="s">
@@ -4760,10 +4773,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
@@ -5119,46 +5132,64 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="48" t="s">
-        <v>13</v>
+      <c r="A37" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="24" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6">
-      <c r="A41" s="93" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.6">
+      <c r="A43" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5678,31 +5709,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5831,44 +5862,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="240.75" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="F13" s="105" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="F13" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -5997,32 +6028,38 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:I13"/>
@@ -6030,12 +6067,6 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6081,18 +6112,18 @@
       <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="F2" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6221,44 +6252,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="246" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="F13" s="105" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="F13" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6387,38 +6418,32 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -6426,6 +6451,12 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6458,31 +6489,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="F2" s="105" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="F2" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6611,44 +6642,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="252" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="F13" s="105" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="F13" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6777,38 +6808,32 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -6816,6 +6841,12 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6827,7 +6858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8524,15 +8555,15 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>

--- a/d/INFO.xlsx
+++ b/d/INFO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\核查2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp5\htdocs\flyabroadkit\d\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="总括" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="241">
   <si>
     <t>FLYabroad 技术移民签证申请人总括信息（飞出国）</t>
   </si>
@@ -1921,12 +1921,16 @@
 4. 工作中有涉及做具体的项目，活动，或者业绩，可以提供</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>副申请人教育信息（包括，小学，初中，高中，中专，技校，专、本、硕、博，从最近写起）- FLYabroad 信息表格（飞出国）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2453,6 +2457,33 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2495,18 +2526,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2519,18 +2538,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,8 +2595,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2558,20 +2628,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2579,85 +2646,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2959,17 +2963,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43.109375" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
@@ -2977,15 +2981,15 @@
     <col min="4" max="4" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +2999,7 @@
       </c>
       <c r="D2" s="46"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3005,7 +3009,7 @@
       </c>
       <c r="D3" s="48"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3019,7 @@
       </c>
       <c r="D4" s="48"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
@@ -3025,7 +3029,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
@@ -3035,7 +3039,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3049,7 @@
       </c>
       <c r="D7" s="48"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3055,7 +3059,7 @@
       </c>
       <c r="D8" s="48"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3069,7 @@
       </c>
       <c r="D9" s="48"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -3075,7 +3079,7 @@
       </c>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3085,7 +3089,7 @@
       </c>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="47" t="s">
         <v>21</v>
       </c>
@@ -3095,7 +3099,7 @@
       </c>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
@@ -3105,7 +3109,7 @@
       </c>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="41" t="s">
         <v>24</v>
       </c>
@@ -3115,7 +3119,7 @@
       </c>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3125,7 +3129,7 @@
       </c>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="41" t="s">
         <v>26</v>
       </c>
@@ -3135,7 +3139,7 @@
       </c>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -3145,7 +3149,7 @@
       </c>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="50" t="s">
         <v>28</v>
       </c>
@@ -3155,7 +3159,7 @@
       </c>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -3165,7 +3169,7 @@
       </c>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="51" t="s">
         <v>30</v>
       </c>
@@ -3175,7 +3179,7 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="53" t="s">
         <v>32</v>
       </c>
@@ -3185,7 +3189,7 @@
       </c>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="47" t="s">
         <v>34</v>
       </c>
@@ -3194,7 +3198,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="54" t="s">
         <v>36</v>
       </c>
@@ -3204,51 +3208,51 @@
       </c>
       <c r="D23" s="55"/>
     </row>
-    <row r="24" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="40.5" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A25" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6">
+      <c r="A29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3262,16 +3266,16 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"加拿大,澳大利亚,魁北克,新西兰,都可以"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"加拿大联邦技术移民,魁北克技术移民,澳大利亚技术移民,加拿大省提名技术,加拿大省提名亲属担保,澳洲亲属担保移民,请FLY帮助确定,随便"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"google,baidu,其他论坛,朋友介绍,QQ、MSN群,博客,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>"招商银行,中国银行,建设银行,工商银行,随便"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3281,14 +3285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="3" width="14.109375" customWidth="1"/>
@@ -3300,20 +3304,20 @@
     <col min="9" max="9" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>165</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3353,7 +3357,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3364,7 +3368,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3375,7 +3379,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3386,7 +3390,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3397,7 +3401,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3408,7 +3412,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3419,7 +3423,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3430,20 +3434,20 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+    <row r="12" spans="1:9" ht="15.6">
+      <c r="A12" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.8">
       <c r="A13" s="11" t="s">
         <v>165</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3483,7 +3487,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3494,7 +3498,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3505,7 +3509,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3516,7 +3520,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3527,7 +3531,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3538,7 +3542,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3549,7 +3553,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3560,31 +3564,31 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3600,14 +3604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
@@ -3622,23 +3626,23 @@
     <col min="12" max="12" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:12" ht="17.399999999999999">
+      <c r="A1" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="121"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.8">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>177</v>
@@ -3674,7 +3678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3690,7 +3694,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3706,7 +3710,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3722,7 +3726,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3754,37 +3758,37 @@
       <c r="K7" s="5"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.399999999999999">
+      <c r="A9" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>189</v>
@@ -3814,7 +3818,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>194</v>
       </c>
@@ -3828,7 +3832,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>195</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>196</v>
       </c>
@@ -3856,7 +3860,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>197</v>
       </c>
@@ -3870,27 +3874,27 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.399999999999999">
+      <c r="A16" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>199</v>
@@ -3911,7 +3915,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>204</v>
       </c>
@@ -3933,7 +3937,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>205</v>
       </c>
@@ -3944,7 +3948,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>206</v>
       </c>
@@ -3955,18 +3959,18 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+    <row r="23" spans="1:7" ht="17.399999999999999">
+      <c r="A23" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>208</v>
@@ -3987,7 +3991,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3998,7 +4002,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -4009,7 +4013,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -4020,23 +4024,23 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+    <row r="29" spans="1:7" ht="17.399999999999999">
+      <c r="A29" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="6"/>
       <c r="B30" s="2" t="s">
         <v>215</v>
@@ -4057,7 +4061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -4068,7 +4072,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
         <v>204</v>
       </c>
@@ -4079,19 +4083,19 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="s">
+    <row r="33" spans="1:8" ht="17.399999999999999">
+      <c r="A33" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
         <v>215</v>
@@ -4115,7 +4119,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -4127,7 +4131,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
         <v>204</v>
       </c>
@@ -4139,17 +4143,17 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+    <row r="37" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A37" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4170,7 +4174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4180,22 +4184,22 @@
       <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="5" width="30.77734375" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="40" t="s">
         <v>44</v>
@@ -4210,7 +4214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
@@ -4219,7 +4223,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
@@ -4228,7 +4232,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -4237,7 +4241,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -4246,7 +4250,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
@@ -4255,7 +4259,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="41" t="s">
         <v>53</v>
       </c>
@@ -4264,7 +4268,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="41" t="s">
         <v>54</v>
       </c>
@@ -4273,7 +4277,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4286,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
@@ -4291,7 +4295,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
@@ -4300,7 +4304,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -4318,7 +4322,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -4327,7 +4331,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="42" t="s">
         <v>61</v>
       </c>
@@ -4336,7 +4340,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="43" t="s">
         <v>62</v>
       </c>
@@ -4345,7 +4349,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
@@ -4354,7 +4358,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
@@ -4363,7 +4367,7 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="42" t="s">
         <v>65</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="43" t="s">
         <v>66</v>
       </c>
@@ -4381,7 +4385,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4390,7 +4394,7 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
@@ -4399,7 +4403,7 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -4408,7 +4412,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
@@ -4417,7 +4421,7 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -4435,7 +4439,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>73</v>
       </c>
@@ -4444,7 +4448,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>74</v>
       </c>
@@ -4453,7 +4457,7 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>75</v>
       </c>
@@ -4462,7 +4466,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>76</v>
       </c>
@@ -4471,7 +4475,7 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="42" t="s">
         <v>77</v>
       </c>
@@ -4484,7 +4488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="42" t="s">
         <v>79</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>80</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
         <v>82</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>83</v>
       </c>
@@ -4541,7 +4545,7 @@
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
         <v>84</v>
       </c>
@@ -4550,7 +4554,7 @@
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="41" t="s">
         <v>85</v>
       </c>
@@ -4559,7 +4563,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
@@ -4568,23 +4572,23 @@
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.6">
+      <c r="A43" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4599,17 +4603,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -4622,21 +4626,21 @@
     <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+    </row>
+    <row r="2" spans="1:10" s="34" customFormat="1">
       <c r="A2" s="35" t="s">
         <v>88</v>
       </c>
@@ -4661,14 +4665,14 @@
       <c r="H2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4680,7 +4684,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4692,7 +4696,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4704,7 +4708,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4716,7 +4720,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4728,7 +4732,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4740,7 +4744,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4752,49 +4756,49 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+    <row r="10" spans="1:10" ht="32.4" customHeight="1">
+      <c r="A10" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-    </row>
-    <row r="14" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6">
+      <c r="A13" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+    </row>
+    <row r="14" spans="1:10" s="34" customFormat="1">
       <c r="A14" s="35" t="s">
         <v>88</v>
       </c>
@@ -4819,14 +4823,14 @@
       <c r="H14" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4838,7 +4842,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4850,7 +4854,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4862,7 +4866,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4874,7 +4878,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4886,7 +4890,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4898,7 +4902,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -4910,7 +4914,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="29"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -4922,21 +4926,21 @@
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
     </row>
-    <row r="23" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+    <row r="23" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A23" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="35" t="s">
         <v>88</v>
       </c>
@@ -4961,14 +4965,14 @@
       <c r="H24" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="106" t="s">
+      <c r="J24" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -4980,7 +4984,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -4992,7 +4996,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -5004,7 +5008,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -5016,7 +5020,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -5028,7 +5032,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -5040,7 +5044,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -5052,28 +5056,28 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+    <row r="32" spans="1:10" ht="15.6">
+      <c r="A32" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5082,17 +5086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" customWidth="1"/>
@@ -5105,47 +5109,47 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
+      <c r="A2" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="F3" s="81" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="F3" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -5163,7 +5167,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -5181,7 +5185,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -5199,7 +5203,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -5217,7 +5221,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
@@ -5235,7 +5239,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -5253,7 +5257,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -5271,49 +5275,49 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:9" ht="21" customHeight="1">
+      <c r="A11" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-    </row>
-    <row r="12" spans="1:9" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" ht="240.75" customHeight="1">
+      <c r="A12" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-    </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:9" ht="11.25" customHeight="1"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="F14" s="81" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="F14" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -5331,7 +5335,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -5349,7 +5353,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -5367,7 +5371,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -5385,7 +5389,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -5403,7 +5407,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -5421,7 +5425,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -5439,33 +5443,38 @@
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-    </row>
-    <row r="23" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+    </row>
+    <row r="23" spans="1:9" ht="167.25" customHeight="1">
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A2:I2"/>
@@ -5475,11 +5484,6 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5488,7 +5492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5498,7 +5502,7 @@
       <selection activeCell="F13" sqref="F13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" customWidth="1"/>
@@ -5511,34 +5515,34 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -5556,7 +5560,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -5574,7 +5578,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -5592,7 +5596,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -5610,7 +5614,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -5628,7 +5632,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -5646,7 +5650,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -5664,47 +5668,47 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-    </row>
-    <row r="11" spans="1:9" ht="246" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-    </row>
-    <row r="12" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="246" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="6" customHeight="1"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="F13" s="81" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="F13" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -5722,7 +5726,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -5740,7 +5744,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -5758,7 +5762,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -5776,7 +5780,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -5794,7 +5798,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
@@ -5812,7 +5816,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -5830,33 +5834,38 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-    </row>
-    <row r="22" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:9" ht="167.25" customHeight="1">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
@@ -5865,11 +5874,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5878,7 +5882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5888,7 +5892,7 @@
       <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="46.88671875" customWidth="1"/>
@@ -5901,34 +5905,34 @@
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="F2" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -5946,7 +5950,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -5964,7 +5968,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -5982,7 +5986,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -6000,7 +6004,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -6018,7 +6022,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -6036,7 +6040,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -6054,47 +6058,47 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-    </row>
-    <row r="11" spans="1:9" ht="252" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-    </row>
-    <row r="12" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="252" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="6" customHeight="1"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="F13" s="81" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="F13" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -6112,7 +6116,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -6130,7 +6134,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -6148,7 +6152,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -6166,7 +6170,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -6184,7 +6188,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
@@ -6202,7 +6206,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -6220,33 +6224,38 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-    </row>
-    <row r="22" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:9" ht="167.25" customHeight="1">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
@@ -6255,11 +6264,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6268,14 +6272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.21875" style="19" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
@@ -6287,22 +6291,22 @@
     <col min="9" max="9" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:11" ht="39.6" customHeight="1">
+      <c r="A1" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="36" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>128</v>
@@ -6331,7 +6335,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -6346,7 +6350,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -6361,7 +6365,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -6376,7 +6380,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -6391,7 +6395,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -6406,7 +6410,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -6421,7 +6425,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -6436,7 +6440,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -6451,26 +6455,26 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A11" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="25"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="3" t="s">
         <v>138</v>
       </c>
@@ -6486,10 +6490,10 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="25"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -6499,10 +6503,10 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="25"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -6512,10 +6516,10 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="25"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -6525,22 +6529,22 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
+    <row r="16" spans="1:11" ht="34.799999999999997" customHeight="1">
+      <c r="A16" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="28.8">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>128</v>
@@ -6569,7 +6573,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="22">
         <v>1</v>
       </c>
@@ -6584,7 +6588,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="22">
         <v>2</v>
       </c>
@@ -6599,7 +6603,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="22">
         <v>3</v>
       </c>
@@ -6614,7 +6618,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="22">
         <v>4</v>
       </c>
@@ -6629,7 +6633,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="22">
         <v>5</v>
       </c>
@@ -6644,7 +6648,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="22">
         <v>6</v>
       </c>
@@ -6659,7 +6663,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="22">
         <v>7</v>
       </c>
@@ -6674,7 +6678,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="22">
         <v>8</v>
       </c>
@@ -6689,27 +6693,27 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+    <row r="26" spans="1:11" ht="15.6">
+      <c r="A26" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="25"/>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="3" t="s">
         <v>138</v>
       </c>
@@ -6725,10 +6729,10 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="25"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -6738,10 +6742,10 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="25"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -6751,10 +6755,10 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.5" customHeight="1">
       <c r="A30" s="25"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -6764,37 +6768,37 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95" t="s">
+    <row r="32" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A32" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="25"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6807,7 +6811,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="25"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6820,7 +6824,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="25"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6833,7 +6837,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="25"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6846,7 +6850,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="25"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6859,7 +6863,7 @@
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="25"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6872,7 +6876,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="25"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6885,7 +6889,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="25"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6898,7 +6902,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="25"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6911,7 +6915,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="25"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6924,7 +6928,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="25"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6937,7 +6941,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="25"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6950,7 +6954,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="25"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6963,7 +6967,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="25"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6976,7 +6980,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="25"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6989,7 +6993,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="25"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7002,7 +7006,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="25"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -7015,7 +7019,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="25"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -7030,6 +7034,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A31:H31"/>
@@ -7039,11 +7048,6 @@
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -7053,14 +7057,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
@@ -7072,21 +7076,21 @@
     <col min="8" max="8" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:10" ht="34.049999999999997" customHeight="1">
+      <c r="A1" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
         <v>143</v>
@@ -7106,11 +7110,11 @@
       <c r="G2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="100"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -7122,11 +7126,11 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -7140,7 +7144,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -7154,7 +7158,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -7168,7 +7172,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -7182,7 +7186,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -7196,7 +7200,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -7210,7 +7214,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -7224,35 +7228,35 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+    <row r="11" spans="1:10" ht="73.2" customHeight="1">
+      <c r="A11" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+    <row r="12" spans="1:10" ht="40.950000000000003" customHeight="1">
+      <c r="A12" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>143</v>
@@ -7272,11 +7276,11 @@
       <c r="G13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="120"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -7288,11 +7292,11 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="119"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -7306,7 +7310,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -7320,7 +7324,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="16">
         <v>4</v>
       </c>
@@ -7334,7 +7338,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="16">
         <v>5</v>
       </c>
@@ -7348,7 +7352,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="16">
         <v>6</v>
       </c>
@@ -7362,7 +7366,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="16">
         <v>7</v>
       </c>
@@ -7376,7 +7380,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.4" customHeight="1">
       <c r="A21" s="16">
         <v>8</v>
       </c>
@@ -7390,7 +7394,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -7402,7 +7406,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7414,21 +7418,21 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A24" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7440,7 +7444,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -7452,7 +7456,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7464,7 +7468,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -7476,7 +7480,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -7488,7 +7492,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -7500,7 +7504,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -7512,7 +7516,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -7524,7 +7528,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7536,7 +7540,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7548,7 +7552,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7560,7 +7564,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -7572,7 +7576,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -7584,7 +7588,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -7596,7 +7600,7 @@
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7608,7 +7612,7 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7634,14 +7638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -7652,20 +7656,20 @@
     <col min="9" max="9" width="53.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -7709,7 +7713,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -7724,11 +7728,11 @@
       <c r="H4" s="4"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="57" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="5"/>
@@ -7737,7 +7741,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7748,7 +7752,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7759,7 +7763,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7770,7 +7774,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7781,7 +7785,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7792,33 +7796,33 @@
       <c r="H10" s="4"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
+      <c r="A13" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -7847,7 +7851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -7862,7 +7866,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -7877,11 +7881,11 @@
       <c r="H16" s="4"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="57" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="5"/>
@@ -7890,7 +7894,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -7901,7 +7905,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -7912,7 +7916,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -7923,7 +7927,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -7934,7 +7938,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7945,31 +7949,31 @@
       <c r="H22" s="4"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A26" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">
